--- a/00-03 测试卡/私人医生测试卡.xlsx
+++ b/00-03 测试卡/私人医生测试卡.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_project\2020项目对接\01-01珊瑚配置产品\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work_project\00-03 测试卡\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA92C6A7-73CC-4B6A-B47E-4BE8815439F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5085"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="结果数据" sheetId="1" r:id="rId1"/>
@@ -51,64 +52,66 @@
     <t>9439</t>
   </si>
   <si>
+    <t>920111710038</t>
+  </si>
+  <si>
+    <t>3709</t>
+  </si>
+  <si>
+    <t>920111710039</t>
+  </si>
+  <si>
+    <t>9273</t>
+  </si>
+  <si>
+    <t>920111710030</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>920111710032</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4791</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>920111710034</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>7824</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>920111710035</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>6114</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>920111710036</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3097</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>920111710037</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>8491</t>
-  </si>
-  <si>
-    <t>920111710038</t>
-  </si>
-  <si>
-    <t>3709</t>
-  </si>
-  <si>
-    <t>920111710039</t>
-  </si>
-  <si>
-    <t>9273</t>
-  </si>
-  <si>
-    <t>920111710030</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>920111710032</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4791</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>920111710034</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>7824</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>920111710035</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>6114</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>920111710036</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3097</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -483,11 +486,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -524,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -546,10 +549,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -568,10 +571,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -579,10 +582,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -590,21 +593,21 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
+      <c r="B10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -612,10 +615,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -623,10 +626,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
